--- a/data/ibco전용/review_analysis/analysis_results_복수상품제외.xlsx
+++ b/data/ibco전용/review_analysis/analysis_results_복수상품제외.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\ibco전용\review_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C21C58-D643-4754-8E05-523447049045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20187A-5BEE-47D4-9566-1DC14D695470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체_장점_카운트" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="카테고리별_장점_카운트" sheetId="4" r:id="rId4"/>
     <sheet name="카테고리별_단점_카운트" sheetId="5" r:id="rId5"/>
     <sheet name="카테고리별_사용자_카운트" sheetId="6" r:id="rId6"/>
+    <sheet name="요청_리스트" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>장점</t>
   </si>
@@ -100,16 +101,10 @@
     <t>만족합니다</t>
   </si>
   <si>
-    <t>물리성과사용감</t>
-  </si>
-  <si>
     <t>흡수성</t>
   </si>
   <si>
     <t>각질관련</t>
-  </si>
-  <si>
-    <t>순함</t>
   </si>
   <si>
     <t>단점</t>
@@ -613,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -637,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -653,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -789,22 +784,6 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
         <v>1</v>
       </c>
     </row>
@@ -818,13 +797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -904,7 +888,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -920,7 +904,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -928,7 +912,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -944,7 +928,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -968,7 +952,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -976,7 +960,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -993,14 +977,14 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1016,7 +1000,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1353</v>
@@ -1024,7 +1008,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>401</v>
@@ -1032,7 +1016,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>185</v>
@@ -1049,7 +1033,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1060,13 +1044,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1108,15 +1092,15 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8">
         <v>4</v>
@@ -1173,7 +1157,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8">
         <v>3</v>
@@ -1230,7 +1214,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -1287,7 +1271,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
@@ -1344,7 +1328,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1401,7 +1385,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -1458,7 +1442,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1515,7 +1499,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B2:B8)</f>
@@ -1607,7 +1591,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1637,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1646,12 +1630,12 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1696,7 +1680,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1741,7 +1725,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1786,7 +1770,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1831,7 +1815,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1876,7 +1860,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1921,7 +1905,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1966,7 +1950,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B2:B8)</f>
@@ -2031,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2042,24 +2026,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>140</v>
@@ -2076,7 +2060,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>355</v>
@@ -2093,7 +2077,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>233</v>
@@ -2110,7 +2094,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>379</v>
@@ -2127,7 +2111,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>251</v>
@@ -2144,7 +2128,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>118</v>
@@ -2161,7 +2145,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>249</v>
@@ -2180,4 +2164,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E4F64-059B-462D-894B-164A4EE444E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>